--- a/BackTest/2020-01-22 BackTest HC.xlsx
+++ b/BackTest/2020-01-22 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,19 @@
         <v>-6325.5095</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>1621</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1621</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +622,19 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1621</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +661,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1621</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +700,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +733,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +766,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +799,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +832,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +865,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +898,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +931,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +964,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +997,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1030,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1063,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1096,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1129,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1160,15 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1193,15 @@
         <v>-9431.519100000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1226,15 @@
         <v>-9456.385500000002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1259,15 @@
         <v>-9283.385500000002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1294,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1325,15 @@
         <v>-9391.136100000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1360,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1393,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1426,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1457,15 @@
         <v>-9700.794300000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1490,15 @@
         <v>-10060.7943</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1523,15 @@
         <v>-10060.4843</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1556,15 @@
         <v>-10059.9843</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1589,15 @@
         <v>-10059.9843</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1622,15 @@
         <v>-10059.4842</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1655,15 @@
         <v>-20059.4842</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1688,15 @@
         <v>-20058.4842</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1721,15 @@
         <v>-20078.4902</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1756,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1789,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1822,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1855,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1888,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1921,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1954,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1985,15 @@
         <v>-21684.7527</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2020,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,20 +2053,13 @@
       <c r="H50" t="n">
         <v>1</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1615</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1615</v>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2226,24 +2086,13 @@
       <c r="H51" t="n">
         <v>1</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1615</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1615</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2270,24 +2119,13 @@
       <c r="H52" t="n">
         <v>1</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1614</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1615</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2314,16 +2152,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2350,16 +2185,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2386,16 +2218,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2422,16 +2251,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2458,16 +2284,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2494,16 +2317,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2530,16 +2350,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2566,16 +2383,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2602,16 +2416,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2638,16 +2449,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2674,16 +2482,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2708,22 +2513,15 @@
         <v>-24235.34040000001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1619</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2750,22 +2548,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2790,26 +2579,15 @@
         <v>-24840.87860000001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2836,22 +2614,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2878,22 +2647,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2918,24 +2678,21 @@
         <v>-25519.33200000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1616</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2960,24 +2717,21 @@
         <v>-25518.83200000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1614</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3004,22 +2758,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3046,22 +2795,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3088,22 +2832,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3130,22 +2869,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3172,22 +2906,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3214,22 +2943,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3256,22 +2980,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3298,22 +3017,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3340,22 +3054,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3382,22 +3091,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3422,26 +3126,21 @@
         <v>-25947.41910000001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
         <v>1611</v>
       </c>
-      <c r="K81" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3466,26 +3165,21 @@
         <v>-25874.25170000001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
         <v>1611</v>
       </c>
-      <c r="K82" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3510,24 +3204,21 @@
         <v>-25494.83630000001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1623</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3552,24 +3243,21 @@
         <v>-25419.45020000001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3594,24 +3282,21 @@
         <v>-25419.45020000001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1625</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3638,22 +3323,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3680,22 +3360,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3722,22 +3397,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3762,24 +3432,17 @@
         <v>-26715.45010000001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3806,22 +3469,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3848,22 +3502,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3890,22 +3535,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3930,26 +3566,15 @@
         <v>-30739.45010000001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1617</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3976,22 +3601,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4016,26 +3632,15 @@
         <v>-31414.44500000001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1609</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4062,22 +3667,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4102,26 +3698,21 @@
         <v>-32614.44500000001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
         <v>1613</v>
       </c>
-      <c r="K97" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4146,26 +3737,19 @@
         <v>-33814.44500000001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1613</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L98" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4190,26 +3774,19 @@
         <v>-33803.44500000001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1611</v>
-      </c>
-      <c r="K99" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L99" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4234,26 +3811,21 @@
         <v>-35003.44500000001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
         <v>1628</v>
       </c>
-      <c r="K100" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4278,26 +3850,19 @@
         <v>-35003.44500000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1608</v>
-      </c>
-      <c r="K101" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4322,26 +3887,21 @@
         <v>-35002.44500000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
         <v>1608</v>
       </c>
-      <c r="K102" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4368,22 +3928,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4408,26 +3963,21 @@
         <v>-36201.44500000001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
         <v>1608</v>
       </c>
-      <c r="K104" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4452,24 +4002,21 @@
         <v>-36200.94500000001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1619</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4496,22 +4043,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4538,22 +4080,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4580,22 +4117,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4620,24 +4152,21 @@
         <v>-36153.04490000001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1627</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4662,24 +4191,21 @@
         <v>-36119.04490000001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1622</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4704,28 +4230,23 @@
         <v>-37319.04490000001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
         <v>1625</v>
       </c>
-      <c r="K111" t="n">
-        <v>1619</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest HC.xlsx
+++ b/BackTest/2020-01-22 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5964.257600000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-6325.819500000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-6325.819500000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,14 +583,10 @@
         <v>-6325.5095</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1621</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -623,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>1621</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -662,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>1621</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -962,7 +946,7 @@
         <v>-9008.496300000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -995,7 +979,7 @@
         <v>-9007.996300000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1028,7 +1012,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1094,7 +1078,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1127,7 +1111,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1160,7 +1144,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1193,7 +1177,7 @@
         <v>-9431.519100000001</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1226,7 +1210,7 @@
         <v>-9456.385500000002</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1259,7 +1243,7 @@
         <v>-9283.385500000002</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1292,7 +1276,7 @@
         <v>-9283.385500000002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1325,7 +1309,7 @@
         <v>-9391.136100000002</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1358,7 +1342,7 @@
         <v>-9390.636100000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1391,7 +1375,7 @@
         <v>-9411.516100000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1424,7 +1408,7 @@
         <v>-9411.516100000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1457,7 +1441,7 @@
         <v>-9700.794300000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1490,7 +1474,7 @@
         <v>-10060.7943</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1523,7 +1507,7 @@
         <v>-10060.4843</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1556,7 +1540,7 @@
         <v>-10059.9843</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1589,7 +1573,7 @@
         <v>-10059.9843</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1622,7 +1606,7 @@
         <v>-10059.4842</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1655,7 +1639,7 @@
         <v>-20059.4842</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1688,7 +1672,7 @@
         <v>-20058.4842</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1721,7 +1705,7 @@
         <v>-20078.4902</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1919,7 +1903,7 @@
         <v>-21728.2543</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1952,7 +1936,7 @@
         <v>-21597.7128</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1985,7 +1969,7 @@
         <v>-21684.7527</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2051,7 +2035,7 @@
         <v>-21634.73770000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2084,7 +2068,7 @@
         <v>-22092.14480000001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2117,7 +2101,7 @@
         <v>-23172.9785</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2216,7 +2200,7 @@
         <v>-23630.45270000001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2315,7 +2299,7 @@
         <v>-24137.33600000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2348,7 +2332,7 @@
         <v>-24137.33600000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2678,17 +2662,11 @@
         <v>-25519.33200000001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2717,17 +2695,11 @@
         <v>-25518.83200000001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2760,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2797,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2834,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2871,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2908,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2945,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2982,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3019,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3056,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3093,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3126,17 +3058,11 @@
         <v>-25947.41910000001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1611</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3165,17 +3091,11 @@
         <v>-25874.25170000001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1611</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3204,17 +3124,11 @@
         <v>-25494.83630000001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1623</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3243,17 +3157,11 @@
         <v>-25419.45020000001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3282,17 +3190,11 @@
         <v>-25419.45020000001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3325,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3362,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3399,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3432,16 +3322,14 @@
         <v>-26715.45010000001</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3698,7 +3586,7 @@
         <v>-32614.44500000001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>1613</v>
@@ -3737,9 +3625,11 @@
         <v>-33814.44500000001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1613</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -3774,9 +3664,11 @@
         <v>-33803.44500000001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1611</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -3811,11 +3703,9 @@
         <v>-35003.44500000001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1628</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -3850,9 +3740,11 @@
         <v>-35003.44500000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1608</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -3887,7 +3779,7 @@
         <v>-35002.44500000001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>1608</v>
@@ -3963,11 +3855,9 @@
         <v>-36201.44500000001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4002,11 +3892,9 @@
         <v>-36200.94500000001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4152,11 +4040,9 @@
         <v>-36153.04490000001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4191,7 +4077,7 @@
         <v>-36119.04490000001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>1622</v>
@@ -4230,7 +4116,7 @@
         <v>-37319.04490000001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>1625</v>
@@ -4247,6 +4133,6 @@
       <c r="M111" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest HC.xlsx
+++ b/BackTest/2020-01-22 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5964.257600000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-6325.819500000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-6325.5095</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8393.254300000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8393.254300000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8393.254300000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-9008.996300000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-9007.996300000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-9431.519100000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-9283.385500000002</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-9283.385500000002</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-9391.136100000002</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-9390.636100000002</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-9411.516100000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-9411.516100000001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-9700.794300000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-10060.7943</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-10060.4843</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-10059.9843</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-10059.9843</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-10059.4842</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-20059.4842</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-20078.4902</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-21728.2543</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-21597.7128</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-21684.7527</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-23630.45270000001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-24137.33600000001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-24137.33600000001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-24235.34040000001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-24861.07860000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3586,17 +3586,11 @@
         <v>-32614.44500000001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3625,17 +3619,11 @@
         <v>-33814.44500000001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3664,17 +3652,11 @@
         <v>-33803.44500000001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1611</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3707,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3740,17 +3718,11 @@
         <v>-35003.44500000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3779,17 +3751,11 @@
         <v>-35002.44500000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3822,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3859,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3892,15 +3850,15 @@
         <v>-36200.94500000001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1619</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1619</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3932,10 +3890,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1619</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -3969,10 +3929,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1619</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -4007,11 +3969,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4044,11 +4002,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4077,17 +4031,11 @@
         <v>-36119.04490000001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4116,23 +4064,17 @@
         <v>-37319.04490000001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
       <c r="M111" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest HC.xlsx
+++ b/BackTest/2020-01-22 BackTest HC.xlsx
@@ -484,7 +484,7 @@
         <v>-6325.819500000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-6325.819500000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-6325.819500000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-6325.5095</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8393.254300000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8393.254300000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8393.254300000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-9008.996300000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-9008.496300000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-9431.519100000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-9456.385500000002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-9283.385500000002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-9283.385500000002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-9391.136100000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-9390.636100000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-9411.516100000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-9411.516100000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-9700.794300000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-10060.7943</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-10059.9843</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-10059.4842</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-20059.4842</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-20058.4842</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-20078.4902</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-20077.9902</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-20077.9902</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-21674.5638</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-24235.34040000001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-24861.07860000001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3586,11 +3586,17 @@
         <v>-32614.44500000001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1613</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3625,17 @@
         <v>-33814.44500000001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1613</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3664,17 @@
         <v>-33803.44500000001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1611</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3703,17 @@
         <v>-35003.44500000001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1628</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3742,17 @@
         <v>-35003.44500000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1608</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3781,17 @@
         <v>-35002.44500000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1608</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3820,17 @@
         <v>-36202.44500000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1625</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3859,17 @@
         <v>-36201.44500000001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1608</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3855,10 +3903,12 @@
       <c r="I105" t="n">
         <v>1619</v>
       </c>
-      <c r="J105" t="n">
-        <v>1619</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,15 +3937,15 @@
         <v>-36200.44500000001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>1619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1622</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -3926,15 +3976,15 @@
         <v>-36130.44500000001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>1619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1623</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -3965,11 +4015,17 @@
         <v>-36129.94500000001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1626</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3998,11 +4054,17 @@
         <v>-36153.04490000001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1627</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4031,11 +4093,17 @@
         <v>-36119.04490000001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1622</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4064,11 +4132,17 @@
         <v>-37319.04490000001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1625</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-22 BackTest HC.xlsx
+++ b/BackTest/2020-01-22 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>208.7592</v>
       </c>
       <c r="G2" t="n">
-        <v>-5964.257600000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,21 @@
         <v>361.5619</v>
       </c>
       <c r="G3" t="n">
-        <v>-6325.819500000001</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1622</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +509,21 @@
         <v>302.7305</v>
       </c>
       <c r="G4" t="n">
-        <v>-6325.819500000001</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1621</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,21 @@
         <v>460</v>
       </c>
       <c r="G5" t="n">
-        <v>-6325.819500000001</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1621</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,21 @@
         <v>0.31</v>
       </c>
       <c r="G6" t="n">
-        <v>-6325.5095</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1621</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,19 @@
         <v>23.2448</v>
       </c>
       <c r="G7" t="n">
-        <v>-6348.754300000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +651,19 @@
         <v>0.5</v>
       </c>
       <c r="G8" t="n">
-        <v>-6348.254300000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +685,19 @@
         <v>1055</v>
       </c>
       <c r="G9" t="n">
-        <v>-7403.254300000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +719,19 @@
         <v>20.3203</v>
       </c>
       <c r="G10" t="n">
-        <v>-7403.254300000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +753,19 @@
         <v>990</v>
       </c>
       <c r="G11" t="n">
-        <v>-8393.254300000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +787,19 @@
         <v>1.94</v>
       </c>
       <c r="G12" t="n">
-        <v>-8393.254300000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +821,21 @@
         <v>475</v>
       </c>
       <c r="G13" t="n">
-        <v>-8393.254300000001</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +857,21 @@
         <v>86.596</v>
       </c>
       <c r="G14" t="n">
-        <v>-8393.254300000001</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +893,19 @@
         <v>382.089</v>
       </c>
       <c r="G15" t="n">
-        <v>-8393.254300000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +927,19 @@
         <v>615.742</v>
       </c>
       <c r="G16" t="n">
-        <v>-9008.996300000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +961,19 @@
         <v>0.5</v>
       </c>
       <c r="G17" t="n">
-        <v>-9008.496300000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +995,19 @@
         <v>0.5</v>
       </c>
       <c r="G18" t="n">
-        <v>-9007.996300000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1029,19 @@
         <v>12.3771</v>
       </c>
       <c r="G19" t="n">
-        <v>-8995.619200000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1063,19 @@
         <v>646.0697</v>
       </c>
       <c r="G20" t="n">
-        <v>-8995.619200000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1097,19 @@
         <v>137.6499</v>
       </c>
       <c r="G21" t="n">
-        <v>-8995.619200000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1131,19 @@
         <v>176.3954</v>
       </c>
       <c r="G22" t="n">
-        <v>-8995.619200000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1165,19 @@
         <v>3.0074</v>
       </c>
       <c r="G23" t="n">
-        <v>-8995.619200000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1199,17 @@
         <v>435.8999</v>
       </c>
       <c r="G24" t="n">
-        <v>-9431.519100000001</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1231,15 @@
         <v>24.8664</v>
       </c>
       <c r="G25" t="n">
-        <v>-9456.385500000002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1261,15 @@
         <v>173</v>
       </c>
       <c r="G26" t="n">
-        <v>-9283.385500000002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1291,15 @@
         <v>192.1587</v>
       </c>
       <c r="G27" t="n">
-        <v>-9283.385500000002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1321,15 @@
         <v>107.7506</v>
       </c>
       <c r="G28" t="n">
-        <v>-9391.136100000002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1351,15 @@
         <v>0.5</v>
       </c>
       <c r="G29" t="n">
-        <v>-9390.636100000002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1381,15 @@
         <v>20.88</v>
       </c>
       <c r="G30" t="n">
-        <v>-9411.516100000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1411,15 @@
         <v>210.0699</v>
       </c>
       <c r="G31" t="n">
-        <v>-9411.516100000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1441,15 @@
         <v>289.2782</v>
       </c>
       <c r="G32" t="n">
-        <v>-9700.794300000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1471,15 @@
         <v>360</v>
       </c>
       <c r="G33" t="n">
-        <v>-10060.7943</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1501,19 @@
         <v>0.31</v>
       </c>
       <c r="G34" t="n">
-        <v>-10060.4843</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1613</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1613</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1535,21 @@
         <v>0.5</v>
       </c>
       <c r="G35" t="n">
-        <v>-10059.9843</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>1613</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1571,21 @@
         <v>86.7771</v>
       </c>
       <c r="G36" t="n">
-        <v>-10059.9843</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>1613</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1607,15 @@
         <v>0.5001</v>
       </c>
       <c r="G37" t="n">
-        <v>-10059.4842</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1637,15 @@
         <v>10000</v>
       </c>
       <c r="G38" t="n">
-        <v>-20059.4842</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1667,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>-20058.4842</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1697,15 @@
         <v>20.006</v>
       </c>
       <c r="G40" t="n">
-        <v>-20078.4902</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1727,15 @@
         <v>0.5</v>
       </c>
       <c r="G41" t="n">
-        <v>-20077.9902</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1757,15 @@
         <v>0.5</v>
       </c>
       <c r="G42" t="n">
-        <v>-20077.9902</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1787,15 @@
         <v>1596.5736</v>
       </c>
       <c r="G43" t="n">
-        <v>-21674.5638</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1817,15 @@
         <v>19.0854</v>
       </c>
       <c r="G44" t="n">
-        <v>-21655.4784</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1847,15 @@
         <v>72.77589999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>-21728.2543</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1877,15 @@
         <v>172.2399</v>
       </c>
       <c r="G46" t="n">
-        <v>-21728.2543</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1907,15 @@
         <v>130.5415</v>
       </c>
       <c r="G47" t="n">
-        <v>-21597.7128</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1937,15 @@
         <v>87.0399</v>
       </c>
       <c r="G48" t="n">
-        <v>-21684.7527</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1967,15 @@
         <v>50.015</v>
       </c>
       <c r="G49" t="n">
-        <v>-21634.73770000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1997,15 @@
         <v>179.9601</v>
       </c>
       <c r="G50" t="n">
-        <v>-21634.73770000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2027,15 @@
         <v>457.4071</v>
       </c>
       <c r="G51" t="n">
-        <v>-22092.14480000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2057,15 @@
         <v>1080.8337</v>
       </c>
       <c r="G52" t="n">
-        <v>-23172.9785</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2087,15 @@
         <v>0.5</v>
       </c>
       <c r="G53" t="n">
-        <v>-23172.4785</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2117,15 @@
         <v>458.4742</v>
       </c>
       <c r="G54" t="n">
-        <v>-23630.95270000001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2147,15 @@
         <v>0.5</v>
       </c>
       <c r="G55" t="n">
-        <v>-23630.45270000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2177,15 @@
         <v>25.6335</v>
       </c>
       <c r="G56" t="n">
-        <v>-23656.08620000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2207,15 @@
         <v>4.3665</v>
       </c>
       <c r="G57" t="n">
-        <v>-23656.08620000001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2237,15 @@
         <v>481.2498</v>
       </c>
       <c r="G58" t="n">
-        <v>-24137.33600000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2267,15 @@
         <v>187.3838</v>
       </c>
       <c r="G59" t="n">
-        <v>-24137.33600000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2297,15 @@
         <v>0.5</v>
       </c>
       <c r="G60" t="n">
-        <v>-24136.83600000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2327,15 @@
         <v>26.878</v>
       </c>
       <c r="G61" t="n">
-        <v>-24136.83600000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2357,15 @@
         <v>125.4156</v>
       </c>
       <c r="G62" t="n">
-        <v>-24262.25160000001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2387,19 @@
         <v>26.9112</v>
       </c>
       <c r="G63" t="n">
-        <v>-24235.34040000001</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1612</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2421,21 @@
         <v>78.6675</v>
       </c>
       <c r="G64" t="n">
-        <v>-24235.34040000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2457,21 @@
         <v>625.7382</v>
       </c>
       <c r="G65" t="n">
-        <v>-24861.07860000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2493,21 @@
         <v>20.2</v>
       </c>
       <c r="G66" t="n">
-        <v>-24840.87860000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2529,21 @@
         <v>57.8612</v>
       </c>
       <c r="G67" t="n">
-        <v>-24898.73980000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2565,21 @@
         <v>19.4119</v>
       </c>
       <c r="G68" t="n">
-        <v>-24918.15170000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2601,21 @@
         <v>601.1803</v>
       </c>
       <c r="G69" t="n">
-        <v>-25519.33200000001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2637,21 @@
         <v>0.5</v>
       </c>
       <c r="G70" t="n">
-        <v>-25518.83200000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2673,21 @@
         <v>844.4958</v>
       </c>
       <c r="G71" t="n">
-        <v>-24674.33620000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2709,21 @@
         <v>415</v>
       </c>
       <c r="G72" t="n">
-        <v>-24674.33620000001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2745,21 @@
         <v>390</v>
       </c>
       <c r="G73" t="n">
-        <v>-24674.33620000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2781,21 @@
         <v>1890</v>
       </c>
       <c r="G74" t="n">
-        <v>-24674.33620000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2817,21 @@
         <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>-24664.33620000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2853,21 @@
         <v>565</v>
       </c>
       <c r="G76" t="n">
-        <v>-24099.33620000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2889,21 @@
         <v>625.1514</v>
       </c>
       <c r="G77" t="n">
-        <v>-24724.4876</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2925,21 @@
         <v>4.4832</v>
       </c>
       <c r="G78" t="n">
-        <v>-24720.00440000001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2961,21 @@
         <v>98.58280000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-24720.00440000001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2997,21 @@
         <v>1227.4147</v>
       </c>
       <c r="G80" t="n">
-        <v>-25947.41910000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3033,21 @@
         <v>779.5068</v>
       </c>
       <c r="G81" t="n">
-        <v>-25947.41910000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3069,21 @@
         <v>73.1674</v>
       </c>
       <c r="G82" t="n">
-        <v>-25874.25170000001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3105,21 @@
         <v>379.4154</v>
       </c>
       <c r="G83" t="n">
-        <v>-25494.83630000001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3141,21 @@
         <v>75.3861</v>
       </c>
       <c r="G84" t="n">
-        <v>-25419.45020000001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3177,21 @@
         <v>98.00190000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>-25419.45020000001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3213,21 @@
         <v>0.5</v>
       </c>
       <c r="G86" t="n">
-        <v>-25418.95020000001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3249,21 @@
         <v>1296.9999</v>
       </c>
       <c r="G87" t="n">
-        <v>-26715.95010000001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3285,21 @@
         <v>1200</v>
       </c>
       <c r="G88" t="n">
-        <v>-27915.95010000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3321,21 @@
         <v>1200.5</v>
       </c>
       <c r="G89" t="n">
-        <v>-26715.45010000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3357,21 @@
         <v>1420</v>
       </c>
       <c r="G90" t="n">
-        <v>-28135.45010000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3393,21 @@
         <v>1300</v>
       </c>
       <c r="G91" t="n">
-        <v>-29435.45010000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3429,21 @@
         <v>1200</v>
       </c>
       <c r="G92" t="n">
-        <v>-30635.45010000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3465,21 @@
         <v>104</v>
       </c>
       <c r="G93" t="n">
-        <v>-30739.45010000001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3501,21 @@
         <v>1206.9949</v>
       </c>
       <c r="G94" t="n">
-        <v>-31946.44500000001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3537,21 @@
         <v>532</v>
       </c>
       <c r="G95" t="n">
-        <v>-31414.44500000001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3573,21 @@
         <v>1200</v>
       </c>
       <c r="G96" t="n">
-        <v>-32614.44500000001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,24 +3609,21 @@
         <v>1200</v>
       </c>
       <c r="G97" t="n">
-        <v>-32614.44500000001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>1613</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3622,24 +3645,21 @@
         <v>1200</v>
       </c>
       <c r="G98" t="n">
-        <v>-33814.44500000001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>1613</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3661,24 +3681,21 @@
         <v>11</v>
       </c>
       <c r="G99" t="n">
-        <v>-33803.44500000001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>1611</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3700,24 +3717,21 @@
         <v>1200</v>
       </c>
       <c r="G100" t="n">
-        <v>-35003.44500000001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>1628</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3739,24 +3753,21 @@
         <v>34.7082</v>
       </c>
       <c r="G101" t="n">
-        <v>-35003.44500000001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>1608</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3778,24 +3789,21 @@
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>-35002.44500000001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>1608</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3817,24 +3825,21 @@
         <v>1200</v>
       </c>
       <c r="G103" t="n">
-        <v>-36202.44500000001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>1625</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3856,24 +3861,21 @@
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>-36201.44500000001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>1608</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3895,24 +3897,21 @@
         <v>0.5</v>
       </c>
       <c r="G105" t="n">
-        <v>-36200.94500000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>1619</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3934,24 +3933,21 @@
         <v>0.5</v>
       </c>
       <c r="G106" t="n">
-        <v>-36200.44500000001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>1622</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3973,24 +3969,21 @@
         <v>70</v>
       </c>
       <c r="G107" t="n">
-        <v>-36130.44500000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>1623</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4012,24 +4005,21 @@
         <v>0.5</v>
       </c>
       <c r="G108" t="n">
-        <v>-36129.94500000001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>1626</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4051,24 +4041,21 @@
         <v>23.0999</v>
       </c>
       <c r="G109" t="n">
-        <v>-36153.04490000001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>1627</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4090,24 +4077,21 @@
         <v>34</v>
       </c>
       <c r="G110" t="n">
-        <v>-36119.04490000001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>1622</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4129,24 +4113,21 @@
         <v>1200</v>
       </c>
       <c r="G111" t="n">
-        <v>-37319.04490000001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>1625</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>1612</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
